--- a/output/lagou.xlsx
+++ b/output/lagou.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <s:workbookPr/>
+  <s:workbookPr codeName="ThisWorkbook"/>
   <s:bookViews>
     <s:workbookView activeTab="0"/>
   </s:bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="65">
   <si>
     <t>corp_name</t>
   </si>
@@ -41,13 +41,141 @@
     <t>corp_products</t>
   </si>
   <si>
-    <t>阿里巴巴</t>
-  </si>
-  <si>
-    <t>淘宝（中国）软件有限公司</t>
-  </si>
-  <si>
-    <t>电子商务,生活服务</t>
+    <t>爱车阵</t>
+  </si>
+  <si>
+    <t>好卡（北京）网络技术有限公司</t>
+  </si>
+  <si>
+    <t>移动互联网</t>
+  </si>
+  <si>
+    <t>天使轮</t>
+  </si>
+  <si>
+    <t>少于15人</t>
+  </si>
+  <si>
+    <t>北京</t>
+  </si>
+  <si>
+    <t>我们是一家Startup（初创）公司，有雅虎，阿里，美团等互联网人士创立，致力与服务中国1.3亿的汽车消费人群，打造中国的AAA。
+我们的愿景：
+ 1、省钱省心、以车会友；
+ 2、让每个车主都有一个自己喜欢的车友会
+我们的产品观：一个好的产品不是靠单纯的创新，而是基于对目标群体深度的、细腻的需求的理解，解决他们问题的同时，带来超乎想象的体验。 
+关于团队：核心团队来自雅虎，阿里巴巴，美团等，有超过10年以上者名互联网从业的老兵们，也有19岁的技术极客，有二次创业永不言败的战士，也有BAT技术大牛，既有单身的帅哥美女，也有24小时不分离的准夫妻共事一堂， 既有国际知名学府的人才，也能接纳自学成才的牛人，这里没有等级阶层，只有创业伙伴， 来吧，就等你了。
+我们的优势：磨合里两年多的激情团队，不离不弃的汽车方向，全国上千车友会联盟，独特的产品定位；
+投资和荣誉：
+1、真格基金天使基金
+2、华创Pre-A投资
+3、中关村雏鹰人才计划成员企业。</t>
+  </si>
+  <si>
+    <t>天翼科技创业投资有限公司</t>
+  </si>
+  <si>
+    <t>未融资</t>
+  </si>
+  <si>
+    <t>15-50人</t>
+  </si>
+  <si>
+    <t>上海</t>
+  </si>
+  <si>
+    <t>中国电信天翼科技创业投资有限公司（中国电信创新孵化基地）是中国电信集团主业范围内的全资一级子公司，是中国电信实施战略转型、推进科技创新的重要战略单元。
+    公司位于上海市浦东新区杨高南路5678弄中国电信信息园区内。公司聚焦移动互联网、云计算和物联网等战略性新兴业务，坚持“专业孵化+创业导师+天使投资”的孵化模式，将中国电信的资金、网络、技术、人才、创意等资源与社会科技创新环境及资本进行高效整合对接，积极扶持内部员工和社会有志之士的早期创业。公司在立足资源和品牌优势的同时，积极引入民企的股权和人才激励机制，同时开放社会资本参与渠道，打造国内领先的创业服务和投融资平台。
+公司力争在信息产业领域培育一批龙头企业，培养一批企业家和创新人才，打造规模化、体系化、高端化的信息产业集群，有效推动科技创新企业的聚集与发展，开创国有资本体系下推动自主创新和企业发展的新模式。</t>
+  </si>
+  <si>
+    <t>和创业者一起成就梦想,</t>
+  </si>
+  <si>
+    <t>上海奕行</t>
+  </si>
+  <si>
+    <t>上海奕行信息科技公司</t>
+  </si>
+  <si>
+    <t>文化娱乐</t>
+  </si>
+  <si>
+    <t>上海奕行公司核心创业人员主要来自于中国电信全球眼研发团队，基于安防视频监控技术，进行视频的聚合/转换/分发/分析等处理，形成智能交通实时路况信息，为车联网等企业和个人用户提供实景路况服务，开发智慧旅游景区实景展示方案。公司由中国电信天翼创投进行投资，与中国电信等运营商有密切的合作关系。</t>
+  </si>
+  <si>
+    <t>翼行</t>
+  </si>
+  <si>
+    <t>百付天下</t>
+  </si>
+  <si>
+    <t>上海翰鑫信息科技有限公司</t>
+  </si>
+  <si>
+    <t>B轮</t>
+  </si>
+  <si>
+    <t>50-150人</t>
+  </si>
+  <si>
+    <t>上海翰鑫信息科技有限公司（以下简称翰鑫科技）成立于2010年9月，正值移动互联网步入发展阶段，市场氛围及用户认知度也相当良好，为翰鑫科技的发展提供了良好的环境！
+ 目前是中国银联的战略合作伙伴。同时，翰鑫科技与三大运营商及保险、商旅、航空等机构建立了良好的合作关系。
+ 翰鑫科技的移动支付产品系列已从原来的单一“智能卡支付”扩展到手机应用内支付、WAP支付、IVR语音支付、微支付、SMS支付等多款产品。同时，为运维着多个业务平台，包括：资金归集平台、信用卡还款转账平台、O2O无卡消费平台等。并在此基础之上，为行业客户提供整体解决方案。
+ 公司从原有的十几个人扩展到目前的140多名正式员工，并且拥有上海总部、北京、江苏、浙江多个分支业务机构。为翰鑫科技的长足发展奠定了扎实的技术、业务基础。</t>
+  </si>
+  <si>
+    <t>唯医网</t>
+  </si>
+  <si>
+    <t>北京欧应科技有限公司</t>
+  </si>
+  <si>
+    <t>150-500人</t>
+  </si>
+  <si>
+    <t>北京欧应科技有限公司是一家专注于专业医疗教育的垂直社交类的专业网站，拥有国内外众多高端的医疗教育资源，通过先进高效的网络技术（如视频互动直播），为专业的医疗人员提供及时、全面、互动、分享的医学专业信息和知识分享的平台，同时开展线下专业教育与培训活动。本公司为医疗与互联网技术整合的领导者，并推动着行业的快速发展。</t>
+  </si>
+  <si>
+    <t>唯医</t>
+  </si>
+  <si>
+    <t>北京鼎天</t>
+  </si>
+  <si>
+    <t>北京鼎天投资管理有限公司</t>
+  </si>
+  <si>
+    <t>金融</t>
+  </si>
+  <si>
+    <t>北京鼎天投资管理有限公司是一家集资产管理、投资于一身的集团化企业，总部设在北京CBD核心区。在香港和上海有分支机构。主营业务为股权投资及证券投资，对冲基金及衍生产品投资等。公司将秉承开放、创新、诚信、共荣的原则，以信息及人才为优势，立足长远，建设成为具备一流规模和影响力的资产管理公司。现诚邀行业精英加盟，共享广阔前景。</t>
+  </si>
+  <si>
+    <t>优米网</t>
+  </si>
+  <si>
+    <t>北京优视米网络科技有限公司</t>
+  </si>
+  <si>
+    <t>教育,文化娱乐</t>
+  </si>
+  <si>
+    <t>北京优视米网络科技有限公司成立于2010年3月17日，是由著名制片人王利芬女士创办，经国家广播电影电视总局批准拥有视频节目制作权和视频试听许可证的民营机构。
+ 优米公司面向创业者提供多维度的服务，优米网是公司旗下的视频网站，是为创业者提供有价值视频的服务平台。视频产品聚焦“创业”智慧，提供在线点播等服务，是“创业智慧供应商”。优米网同时为手机用户打造优质的移动客户端创业课件。
+优米网自制视频团队拥有一流的策划制作能力，曾制作《赢在中国》、《我们》、《在路上》等知名栏目。</t>
+  </si>
+  <si>
+    <t>创业实操课程</t>
+  </si>
+  <si>
+    <t>聚美优品</t>
+  </si>
+  <si>
+    <t>北京创锐文化传媒有限公司</t>
+  </si>
+  <si>
+    <t>电子商务</t>
   </si>
   <si>
     <t>上市公司</t>
@@ -56,24 +184,59 @@
     <t>2000人以上</t>
   </si>
   <si>
-    <t>北京</t>
-  </si>
-  <si>
-    <t xml:space="preserve">阿里巴巴网络技术有限公司（简称：阿里巴巴集团）是以曾担任英语教师的
-马云为首的18人，于1999年在中国杭州创立，他们相信互联网能够创造公平的竞争环境，让小企业通过创新与科技扩展业务，并在参与国内或全球市场竞争时处于更有利的位置。[1]
- 阿里巴巴集团经营多项业务，另外也从关联公司的业务和服务中取得经营商业生态系统上的支援。业务和关联公司的业务包括：
-淘宝网、
-天猫、
-聚划算、
-全球速卖通、阿里巴巴国际交易市场、
-1688、
-阿里妈妈、
-阿里云、
-蚂蚁金服、
-菜鸟网络等。[2]
- 2014年9月19日，阿里巴巴集团在纽约证券交易所正式挂牌上市，股票代码“BABA”，创始人和董事局主席为
-马云。2015年全年，阿里巴巴总营收943.84亿元人民币，净利润688.44亿元人民币。
+    <t>聚美优品中国最大的化妆品限时特卖商城，由海归学子陈欧、戴雨森创立于2010年3月，致力于创造简单、有趣、值得信赖的化妆品购物体验。
+ 2014年5月，聚美优品作为中国最大的美妆电商，登陆美国纽约证券交易所挂牌上市，成为近年中国发展速度最快的电子商务公司之一。
+发展至今
+聚美优品注册用户数量突破千万级、月销售超过6亿元、品牌官方授权商品最多，是唯一拥有防伪码体系，能够实现化妆品官网验真的电商。
+先后在天津、上海、广州、成都、沈阳、郑州等地建立总面积达六七万平米的自建仓储、保税仓，并布局香港、日韩、欧美等海外市场，领跑化妆品海外购市场，每天将全球最新潮、火爆、好用的商品搬到用户手机上。
+全方位打造简单、有趣、值得信赖的化妆品购物体验。</t>
+  </si>
+  <si>
+    <t>瓦力</t>
+  </si>
+  <si>
+    <t>北京瓦力网络科技有限公司</t>
+  </si>
+  <si>
+    <t>A轮</t>
+  </si>
+  <si>
+    <t>瓦力是一家致力于无线互联网技术开发及应用服务的专业技术型企业。公司专注于精品游戏平台的运营，是国内知名的游戏运营平台——小米游戏中心的开发商和运营服务提供商。目前，我们的业务不仅仅只限于手机游戏，小米盒子、小米电视，这些小米最发烧的配件都内置有我们的游戏中心。你的工作成果将不断的在最具充满想象空间的智能设备上体现。</t>
+  </si>
+  <si>
+    <t>小米游戏平台的运营</t>
+  </si>
+  <si>
+    <t>今日头条</t>
+  </si>
+  <si>
+    <t>北京字节跳动科技有限公司</t>
+  </si>
+  <si>
+    <t>移动互联网,数据服务</t>
+  </si>
+  <si>
+    <t>C轮</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    “今日头条”是一款基于数据挖掘的推荐引擎产品，是国内移动互联网领域成长最快的产品服务之一。“今日头条”第一个版本于2012年8月上线，截至2016年9月，“今日头条”已经在为超过5.5亿的忠诚用户服务，每天有超过6000万的用户在头条上找到让他们了解世界、启发思考、开怀一笑的信息，并活跃地参与互动。 
+    “今日头条”的团队是一支拥有丰富创业及成熟公司经验的靠谱团队，聚集了来自一流学校和一流公司的顶尖人才，在推荐引擎、机器学习等技术领域拥有与世界级公司接轨的能力。公司正处于高速发展期，2014年6月，今日头条获得C轮1亿美元的融资。
+      我们崇尚简单，始终关注用户需求，热衷于把从用户界面上的每一个细节体验到后台的海量数据处理都做到极致；我们推崇在轻松，快乐的环境中学习，积累，分享和成长。在这里，我们每天都在创造价值，产生影响。
 </t>
+  </si>
+  <si>
+    <t>先智创科</t>
+  </si>
+  <si>
+    <t>先智创科（北京）科技有限公司</t>
+  </si>
+  <si>
+    <t>先智创科，2011年成立于北京，是一家技术型互联网公司，主要从事金融用户数据挖掘和金融产品网络营销业务。公司运营两年以来，为阳光保险、大地保险、渣打银行等多十家金融机构，提供过用户数据分析与价值挖掘，以及产品营销与品牌推广服务。
+对于金融消费者，先智创科通过旗下91金融超市、贷乐发、易贷天下等工具型金融媒体，为金融产品消费者和金融机构搭建的一个信息平台。在这里，贷款、保险、车险、证券、基金等等，凡是能想到的金融产品都有一席之地，金融消费者可以解决同类金融服务机构的价格、服务比较问题，找到最优惠的购买渠道。不只是通过互联网访问，还可以通过手机APP直接在手机上完成操作，或者通过微博、微信等社交网络完成消费，或者直接拨打400-000-9335免费客服电话直接完成。
+对于金融机构，先智创科按照保险、银行等不同行业客户的需求，提供定制化的数据及营销服务。金融机构或其从业人员，可以通过互联网或者手机，直接找到符合其产品定位并且有购买意向的消费者。目前，跨多个平台的用户日均流量达到300,000 UV，单个消费者的成单周期一般在1-3天，而平均每个金融服务机构日接单量能够达到100单。</t>
+  </si>
+  <si>
+    <t>91金融-贷乐发,91金融-易贷天下,91金融-车险通</t>
   </si>
 </sst>
 </file>
@@ -410,7 +573,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,30 +607,323 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
+    <row r="15" spans="1:9">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
         <v>8</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C15" t="s">
         <v>9</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D15" t="s">
         <v>10</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E15" t="s">
         <v>11</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F15" t="s">
         <v>12</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G15" t="s">
         <v>13</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H15" t="s">
         <v>14</v>
+      </c>
+      <c r="I15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" t="s">
+        <v>18</v>
+      </c>
+      <c r="H22" t="s">
+        <v>19</v>
+      </c>
+      <c r="I22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" t="s">
+        <v>17</v>
+      </c>
+      <c r="G25" t="s">
+        <v>18</v>
+      </c>
+      <c r="H25" t="s">
+        <v>24</v>
+      </c>
+      <c r="I25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" t="s">
+        <v>28</v>
+      </c>
+      <c r="F29" t="s">
+        <v>29</v>
+      </c>
+      <c r="G29" t="s">
+        <v>18</v>
+      </c>
+      <c r="H29" t="s">
+        <v>30</v>
+      </c>
+      <c r="I29" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>31</v>
+      </c>
+      <c r="C44" t="s">
+        <v>32</v>
+      </c>
+      <c r="D44" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44" t="s">
+        <v>28</v>
+      </c>
+      <c r="F44" t="s">
+        <v>33</v>
+      </c>
+      <c r="G44" t="s">
+        <v>13</v>
+      </c>
+      <c r="H44" t="s">
+        <v>34</v>
+      </c>
+      <c r="I44" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>36</v>
+      </c>
+      <c r="C45" t="s">
+        <v>37</v>
+      </c>
+      <c r="D45" t="s">
+        <v>38</v>
+      </c>
+      <c r="E45" t="s">
+        <v>16</v>
+      </c>
+      <c r="F45" t="s">
+        <v>17</v>
+      </c>
+      <c r="G45" t="s">
+        <v>13</v>
+      </c>
+      <c r="H45" t="s">
+        <v>39</v>
+      </c>
+      <c r="I45" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>40</v>
+      </c>
+      <c r="C50" t="s">
+        <v>41</v>
+      </c>
+      <c r="D50" t="s">
+        <v>42</v>
+      </c>
+      <c r="E50" t="s">
+        <v>11</v>
+      </c>
+      <c r="F50" t="s">
+        <v>33</v>
+      </c>
+      <c r="G50" t="s">
+        <v>13</v>
+      </c>
+      <c r="H50" t="s">
+        <v>43</v>
+      </c>
+      <c r="I50" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>45</v>
+      </c>
+      <c r="C54" t="s">
+        <v>46</v>
+      </c>
+      <c r="D54" t="s">
+        <v>47</v>
+      </c>
+      <c r="E54" t="s">
+        <v>48</v>
+      </c>
+      <c r="F54" t="s">
+        <v>49</v>
+      </c>
+      <c r="G54" t="s">
+        <v>13</v>
+      </c>
+      <c r="H54" t="s">
+        <v>50</v>
+      </c>
+      <c r="I54" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>51</v>
+      </c>
+      <c r="C59" t="s">
+        <v>52</v>
+      </c>
+      <c r="D59" t="s">
+        <v>10</v>
+      </c>
+      <c r="E59" t="s">
+        <v>53</v>
+      </c>
+      <c r="F59" t="s">
+        <v>29</v>
+      </c>
+      <c r="G59" t="s">
+        <v>13</v>
+      </c>
+      <c r="H59" t="s">
+        <v>54</v>
+      </c>
+      <c r="I59" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>56</v>
+      </c>
+      <c r="C63" t="s">
+        <v>57</v>
+      </c>
+      <c r="D63" t="s">
+        <v>58</v>
+      </c>
+      <c r="E63" t="s">
+        <v>59</v>
+      </c>
+      <c r="F63" t="s">
+        <v>49</v>
+      </c>
+      <c r="G63" t="s">
+        <v>13</v>
+      </c>
+      <c r="H63" t="s">
+        <v>60</v>
+      </c>
+      <c r="I63" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>61</v>
+      </c>
+      <c r="C65" t="s">
+        <v>62</v>
+      </c>
+      <c r="D65" t="s">
+        <v>47</v>
+      </c>
+      <c r="E65" t="s">
+        <v>28</v>
+      </c>
+      <c r="F65" t="s">
+        <v>17</v>
+      </c>
+      <c r="G65" t="s">
+        <v>13</v>
+      </c>
+      <c r="H65" t="s">
+        <v>63</v>
+      </c>
+      <c r="I65" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/output/lagou.xlsx
+++ b/output/lagou.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="117">
   <si>
     <t>corp_name</t>
   </si>
@@ -41,6 +41,74 @@
     <t>corp_products</t>
   </si>
   <si>
+    <t>corp_link</t>
+  </si>
+  <si>
+    <t>北京沃立森德软件技术有限公司</t>
+  </si>
+  <si>
+    <t>数据服务</t>
+  </si>
+  <si>
+    <t>A轮</t>
+  </si>
+  <si>
+    <t>50-150人</t>
+  </si>
+  <si>
+    <t>北京</t>
+  </si>
+  <si>
+    <t>我们致力于为中小企业提供管理软件服务。“少谈一些理念，多谈一些问题”是我们软件开发的宗旨；面对数千万中小企业老板，解决他们日常面临的管理问题和业绩提升问题，就是我们软件的目标。Xtools团队年青且有活力，我们希望通过努力和积累，为中小企业提供易上手、好应用的软件工具。在过去的9年中，积累付费客户1万5千多家；对Xtools来说，这仅是梦想的开始；有你加入，我们一起圆梦！</t>
+  </si>
+  <si>
+    <t>XToolsCRM,Xtools掌中宝</t>
+  </si>
+  <si>
+    <t>http://www.xtools.cn</t>
+  </si>
+  <si>
+    <t>花生共和</t>
+  </si>
+  <si>
+    <t>北京花生时尚技术有限公司</t>
+  </si>
+  <si>
+    <t>文化娱乐</t>
+  </si>
+  <si>
+    <t>15-50人</t>
+  </si>
+  <si>
+    <t>花生共和团队组建于2011年下半年，并在2012年1月份正式上线，旨在为用户提供实用的穿衣搭配的时尚百科。只需一个时尚关键词，就可以获得从时尚知识点、资讯、单品、搭配灵感及时尚搭配心得的时尚全解决方案。让用户可以根据自己的身材、肤色、气质找到适合自己的时尚搭配风格。</t>
+  </si>
+  <si>
+    <t>极品无限</t>
+  </si>
+  <si>
+    <t>北京极品无限科技发展股份有限公司</t>
+  </si>
+  <si>
+    <t>游戏</t>
+  </si>
+  <si>
+    <t>未融资</t>
+  </si>
+  <si>
+    <t>150-500人</t>
+  </si>
+  <si>
+    <t>北京极品无限科技发展有限责任公司（Beijing A-one Sci&amp;Tech Development CO., LTD.），已于今年上市，并更名为“北京极品无限科技发展股份有限公司”，是从事移动增值娱乐产品开发与运营的资深企业，拥有工信部核准的电信增值业务全国运营牌照。总部位于北京，自成立以来，一直以人才为核心、技术为根本、服务需求为导向、提高游戏制作能力为目标，组建了一支拥有先进游戏理念和优秀游戏制作能力的团队。
+北京极品无限以研发为主，目前成员有200人，其中研发中心近80%，组建了BREW、JAVA、Iphone、Android的研发团队。主要开发的无线应用种类包括单机角色、动作、冒险、射击、休闲、益智、养成、运动、竞速、策略、经营游戏，联网策略游戏、游戏对战大厅，以及阅读、交友等手机软件和社区，为中国不同的手机用户设计各种类型的手机应用。
+公司所有员工都具有本科以上学历或中高级职称。公司专业致力于开发优秀的手机应用和原创娱乐产品，所研发的产品在用户中享有盛誉，质量与服务态度均受到广大合作伙伴及最终用户的认同</t>
+  </si>
+  <si>
+    <t>Crazy Panda,仙剑奇侠传之问心</t>
+  </si>
+  <si>
+    <t>http://www.a-onesoft.cn</t>
+  </si>
+  <si>
     <t>爱车阵</t>
   </si>
   <si>
@@ -54,9 +122,6 @@
   </si>
   <si>
     <t>少于15人</t>
-  </si>
-  <si>
-    <t>北京</t>
   </si>
   <si>
     <t>我们是一家Startup（初创）公司，有雅虎，阿里，美团等互联网人士创立，致力与服务中国1.3亿的汽车消费人群，打造中国的AAA。
@@ -75,12 +140,6 @@
     <t>天翼科技创业投资有限公司</t>
   </si>
   <si>
-    <t>未融资</t>
-  </si>
-  <si>
-    <t>15-50人</t>
-  </si>
-  <si>
     <t>上海</t>
   </si>
   <si>
@@ -98,15 +157,15 @@
     <t>上海奕行信息科技公司</t>
   </si>
   <si>
-    <t>文化娱乐</t>
-  </si>
-  <si>
     <t>上海奕行公司核心创业人员主要来自于中国电信全球眼研发团队，基于安防视频监控技术，进行视频的聚合/转换/分发/分析等处理，形成智能交通实时路况信息，为车联网等企业和个人用户提供实景路况服务，开发智慧旅游景区实景展示方案。公司由中国电信天翼创投进行投资，与中国电信等运营商有密切的合作关系。</t>
   </si>
   <si>
     <t>翼行</t>
   </si>
   <si>
+    <t>http://www.51yixing.com</t>
+  </si>
+  <si>
     <t>百付天下</t>
   </si>
   <si>
@@ -114,9 +173,6 @@
   </si>
   <si>
     <t>B轮</t>
-  </si>
-  <si>
-    <t>50-150人</t>
   </si>
   <si>
     <t>上海翰鑫信息科技有限公司（以下简称翰鑫科技）成立于2010年9月，正值移动互联网步入发展阶段，市场氛围及用户认知度也相当良好，为翰鑫科技的发展提供了良好的环境！
@@ -125,19 +181,132 @@
  公司从原有的十几个人扩展到目前的140多名正式员工，并且拥有上海总部、北京、江苏、浙江多个分支业务机构。为翰鑫科技的长足发展奠定了扎实的技术、业务基础。</t>
   </si>
   <si>
+    <t>淘名师网</t>
+  </si>
+  <si>
+    <t>威欧克斯（北京）信息技术有限公司</t>
+  </si>
+  <si>
+    <t>教育</t>
+  </si>
+  <si>
+    <t>公司成员来自Google，新东方，搜狐，聚美优品，公立中学等，并被徐小平、雷军等知名投资人投资。       淘名师专注于K12互联网教育方向，做中小学阶段的在线一对一辅导对接及服务平台，并致力于推进在线教育向更加个性化及智能化的方向发展。       欢迎有志于“互联网+教育”方向发展的英才加入！</t>
+  </si>
+  <si>
+    <t>淘名师</t>
+  </si>
+  <si>
+    <t>http://www.taomingshi.com</t>
+  </si>
+  <si>
+    <t>易科成志</t>
+  </si>
+  <si>
+    <t>北京易科成志科技发展有限公司</t>
+  </si>
+  <si>
+    <t>北京易科成志科技发展有限公司，在IT行业中拥有深厚资源，并致力于传统产业与IT产业结合的方向，为各行业中的传统产业，提供IT拓展解决方案和IT上市解决方案。目前公司业务与从事电影产业和音乐产业的企业提供IT拓展解决方案。</t>
+  </si>
+  <si>
+    <t>istar 明星鼓手,《音》Tap Now Tunes</t>
+  </si>
+  <si>
+    <t>http://www.lagou.com</t>
+  </si>
+  <si>
+    <t>虎嗅网</t>
+  </si>
+  <si>
+    <t>北京虎嗅信息科技股份有限公司</t>
+  </si>
+  <si>
+    <t>虎嗅是一个有视角的商业资讯与交流平台。
+我们视角的核心，是看一系列明星公司（包括公众公司与创业型企业）为何起落，产业潮汐的动力在哪里，最值得投资的商业是什么。
+在互联网信息汪洋的当下，我们致力于为用户创造了解商业资讯并进行交流的——更"有效率"的体验。
+虎嗅网创立于2012年5月，在当年即获《2012社会化影响力排行榜》年度新锐传媒。
+2014年初获得A轮投资。
+-----分割线------
+了解过去一年的虎嗅请移步虎嗅一岁记
+http://www.huxiu.com/oneyear.html</t>
+  </si>
+  <si>
+    <t>http://www.huxiu.com</t>
+  </si>
+  <si>
+    <t>灵动快拍</t>
+  </si>
+  <si>
+    <t>北京灵动快拍信息技术有限公司</t>
+  </si>
+  <si>
+    <t>北京灵动快拍信息技术有限公司成立于2010年3月，注册资金1322万。长期以来专注自动识别技术，在二维码识读及相关高新技术应用研发方面处于国内领先位置。
+“快拍二维码”是灵动快拍具有自主知识产权的扫码软件产品，其具备的识别速度快、识别率高等优势已经获取超过5000万用户的一致认可，也在物联网发展、传统互联网移动化等方面做出了卓越的贡献。</t>
+  </si>
+  <si>
+    <t>快拍二维码</t>
+  </si>
+  <si>
+    <t>http://www.kuaipai.cn</t>
+  </si>
+  <si>
+    <t>外卖超人</t>
+  </si>
+  <si>
+    <t>上海爱餐商务咨询有限公司</t>
+  </si>
+  <si>
+    <t>电子商务</t>
+  </si>
+  <si>
+    <t xml:space="preserve">公司介绍：为拓展中国市场，外卖超人于2012年8月在上海设立中国办公室。2013年发展至今，已累计服务上海20万白领（人），客单价行业排名第二。经过2014年一年的发展，2015年外卖超人已在全国18个城市开展订餐服务，并拥有第一方配送团队，目前仍在继续扩张中。
+外卖超人优势：
+发展平台：每季度进行绩效考核，考核合格者即可晋升加薪；
+管理模式：简单的人际关系，自由平等的沟通；年轻、活跃的团队，99%的队员是80后、90后；
+企业荣誉：
+新营销2014“标杆20”中国营销荣誉大奖营销创新案例；
+世界O2O博览会2014全球最具影响力O2O应用美食奖；
+2015中国移动互联网年度榜单最佳生活服务应用。
+超人special：
+外卖超人是中国外卖市场唯一得到国际支持的Player；
+外卖超人是中国外卖市场唯一专注外卖的Player；
+外卖超人是中国外卖市场唯一专注高端白领的Player；
+外卖超人是中国外卖市场唯一专注轻模式的公司，成本消耗远低于对手。
+我们欢迎的人：
+   愿意不断提升自身能力与公司同步快速成长，寻求自我突破及自身价值的最大实现。
+   认可互联网时代是充分竞争的时代，没有进步就会被淘汰。
+   希望通过奋斗获得最大的晋升机会和收入的提高。
+我们为你提供：
+ 绩效奖金：充分体现多劳多得，充分激励员工的工作积极性及肯定员工的工作成果，晋升体系绩效化；
+ 保险保障：五险一金缴纳足额及时；
+ 带薪休假：平均一年15-20天带薪休假；
+ 茶点水果：办公室随时提供充足的各色茶点水果和小零食；
+ 培训发展：公司关注每一位员工的职业生涯发展，提供完善的新人带教，企业文化培训...；
+ 活动基金：员工入职后可享受每月每人的专属活动基金，公司不定时组织各类娱乐活动：桌游、K歌、运动、聚餐等；
+ 集体旅行：每年组织旅游，TB等集体活动。
+超人链接：
+超人官网：http://waimaichaoren.com
+百度百科：http://baike.baidu.com/view/9552011.htm?fr=aladdin
+新浪微博：http://weibo.com/shanghaiaimifan
+优酷广告：http://v.youku.com/v_show/id_XNTczNTIyMzgw.html
+</t>
+  </si>
+  <si>
+    <t>http://www.waimaichaoren.com</t>
+  </si>
+  <si>
     <t>唯医网</t>
   </si>
   <si>
     <t>北京欧应科技有限公司</t>
   </si>
   <si>
-    <t>150-500人</t>
-  </si>
-  <si>
     <t>北京欧应科技有限公司是一家专注于专业医疗教育的垂直社交类的专业网站，拥有国内外众多高端的医疗教育资源，通过先进高效的网络技术（如视频互动直播），为专业的医疗人员提供及时、全面、互动、分享的医学专业信息和知识分享的平台，同时开展线下专业教育与培训活动。本公司为医疗与互联网技术整合的领导者，并推动着行业的快速发展。</t>
   </si>
   <si>
     <t>唯医</t>
+  </si>
+  <si>
+    <t>http://www.allinmd.cn/index.html</t>
   </si>
   <si>
     <t>北京鼎天</t>
@@ -173,9 +342,6 @@
   </si>
   <si>
     <t>北京创锐文化传媒有限公司</t>
-  </si>
-  <si>
-    <t>电子商务</t>
   </si>
   <si>
     <t>上市公司</t>
@@ -192,19 +358,49 @@
 全方位打造简单、有趣、值得信赖的化妆品购物体验。</t>
   </si>
   <si>
+    <t>http://www.jumei.com</t>
+  </si>
+  <si>
+    <t>卖座网</t>
+  </si>
+  <si>
+    <t>深圳市华宇讯科技有限公司</t>
+  </si>
+  <si>
+    <t>移动互联网,电子商务</t>
+  </si>
+  <si>
+    <t>500-2000人</t>
+  </si>
+  <si>
+    <t>深圳</t>
+  </si>
+  <si>
+    <t>深圳市华宇讯科技有限公司创立于2004年，总部位于深圳，已开设上海、广州、北京、佛山、东莞、成都、武汉、南京、长沙等地办事处，已拥有全国28个省份（直辖市）、150余个城市、2000余家星级影院的票务资源，已为12,000,000用户提供了便捷优惠的电影生活服务，成功服务中国移动、中国联通、平安保险、中国银行、腾讯、周大福、屈臣氏、黄埔海关等大型政企事业单位，是国内最大的第三方电影票务生活及营销服务提供商之一
+ 公司独家运营的卖座网(www.maizuo.com) ，是中国领先的电影及文化娱乐消费的在线服务平台，面向全国300个城市的8千多万用户提供覆盖超过2500家影剧院的在线订座、文化娱乐社交等服务；通过（移动）互联网产品为载体，卖座网帮助广大用户更快捷、更社交化的享受文化服务，如手机在线订座、兴趣化群组等，从而帮助推动及提升中国的文化市场规模和活跃度；在服务用户的基础上，卖座网利用互联网能力，实现电影文化内容的在线发行，运用大数据帮助内容生产者面向目标市场人群推广产品和演出放映落地，从而有效帮助文化娱乐产业链的各个环节实现更为精准、高效的衔接合作；卖座网同时为全国一万多家机构提供电影、文化娱乐的服务解决方案，满足各类机构提升员工文化建设、客户文化建设的运作需求，为各企业单位的精神文明建设提供了高效的保障。
+ 公司秉承“快乐尽责 成果共享”的典型互联网创业理念，获得了员工极大的认同，并打造出了朝气、协作、创新、负责的工作氛围
+ 经过多年的积累和发展，公司目前开始步入高速发展阶段，在运营商合作、电子商务、增值服务（平台）等项目上增长迅猛，基于发展的需要，华宇讯诚挚邀请有自信、有远见、有创意、有责任心的“新四有新人”加盟，共创事业
+官方网址：www.maizuo.com
+官方微博：http://e.weibo.com/maizuo
+卖座APP：http://www.maizuo.com/phone02.htm</t>
+  </si>
+  <si>
+    <t>http://www.maizuo.com</t>
+  </si>
+  <si>
     <t>瓦力</t>
   </si>
   <si>
     <t>北京瓦力网络科技有限公司</t>
   </si>
   <si>
-    <t>A轮</t>
-  </si>
-  <si>
     <t>瓦力是一家致力于无线互联网技术开发及应用服务的专业技术型企业。公司专注于精品游戏平台的运营，是国内知名的游戏运营平台——小米游戏中心的开发商和运营服务提供商。目前，我们的业务不仅仅只限于手机游戏，小米盒子、小米电视，这些小米最发烧的配件都内置有我们的游戏中心。你的工作成果将不断的在最具充满想象空间的智能设备上体现。</t>
   </si>
   <si>
     <t>小米游戏平台的运营</t>
+  </si>
+  <si>
+    <t>http://app.xiaomi.com/game/</t>
   </si>
   <si>
     <t>今日头条</t>
@@ -225,6 +421,9 @@
 </t>
   </si>
   <si>
+    <t>http://www.bytedance.com</t>
+  </si>
+  <si>
     <t>先智创科</t>
   </si>
   <si>
@@ -237,6 +436,9 @@
   </si>
   <si>
     <t>91金融-贷乐发,91金融-易贷天下,91金融-车险通</t>
+  </si>
+  <si>
+    <t>http://www.foreseeuniverse.com</t>
   </si>
 </sst>
 </file>
@@ -573,7 +775,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I65"/>
+  <dimension ref="A1:J65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -581,7 +783,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -606,324 +808,630 @@
       <c r="I1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12" t="s">
+        <v>28</v>
+      </c>
+      <c r="J12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" t="n">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="G15" t="s">
         <v>13</v>
       </c>
       <c r="H15" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="I15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" t="n">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="C22" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="E22" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F22" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G22" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="H22" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="I22" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" t="n">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="C25" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D25" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E25" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F25" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G25" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="H25" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="I25" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>43</v>
+      </c>
+      <c r="J25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" t="n">
         <v>28</v>
       </c>
       <c r="B29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" t="s">
+        <v>32</v>
+      </c>
+      <c r="E29" t="s">
+        <v>47</v>
+      </c>
+      <c r="F29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" t="s">
+        <v>37</v>
+      </c>
+      <c r="H29" t="s">
+        <v>48</v>
+      </c>
+      <c r="I29" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" t="s">
+        <v>50</v>
+      </c>
+      <c r="D31" t="s">
+        <v>51</v>
+      </c>
+      <c r="E31" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" t="s">
+        <v>34</v>
+      </c>
+      <c r="G31" t="s">
+        <v>13</v>
+      </c>
+      <c r="H31" t="s">
+        <v>52</v>
+      </c>
+      <c r="I31" t="s">
+        <v>53</v>
+      </c>
+      <c r="J31" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" t="s">
+        <v>56</v>
+      </c>
+      <c r="D33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F33" t="s">
+        <v>20</v>
+      </c>
+      <c r="G33" t="s">
+        <v>13</v>
+      </c>
+      <c r="H33" t="s">
+        <v>57</v>
+      </c>
+      <c r="I33" t="s">
+        <v>58</v>
+      </c>
+      <c r="J33" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>60</v>
+      </c>
+      <c r="C39" t="s">
+        <v>61</v>
+      </c>
+      <c r="D39" t="s">
+        <v>32</v>
+      </c>
+      <c r="E39" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39" t="s">
+        <v>12</v>
+      </c>
+      <c r="G39" t="s">
+        <v>13</v>
+      </c>
+      <c r="H39" t="s">
+        <v>62</v>
+      </c>
+      <c r="I39" t="s">
+        <v>60</v>
+      </c>
+      <c r="J39" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>64</v>
+      </c>
+      <c r="C42" t="s">
+        <v>65</v>
+      </c>
+      <c r="D42" t="s">
+        <v>32</v>
+      </c>
+      <c r="E42" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42" t="s">
+        <v>12</v>
+      </c>
+      <c r="G42" t="s">
+        <v>13</v>
+      </c>
+      <c r="H42" t="s">
+        <v>66</v>
+      </c>
+      <c r="I42" t="s">
+        <v>67</v>
+      </c>
+      <c r="J42" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>69</v>
+      </c>
+      <c r="C43" t="s">
+        <v>70</v>
+      </c>
+      <c r="D43" t="s">
+        <v>71</v>
+      </c>
+      <c r="E43" t="s">
+        <v>47</v>
+      </c>
+      <c r="F43" t="s">
         <v>26</v>
       </c>
-      <c r="C29" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29" t="s">
-        <v>28</v>
-      </c>
-      <c r="F29" t="s">
-        <v>29</v>
-      </c>
-      <c r="G29" t="s">
-        <v>18</v>
-      </c>
-      <c r="H29" t="s">
-        <v>30</v>
-      </c>
-      <c r="I29" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+      <c r="G43" t="s">
+        <v>37</v>
+      </c>
+      <c r="H43" t="s">
+        <v>72</v>
+      </c>
+      <c r="I43" t="s">
+        <v>69</v>
+      </c>
+      <c r="J43" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" t="n">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="C44" t="s">
+        <v>75</v>
+      </c>
+      <c r="D44" t="s">
         <v>32</v>
       </c>
-      <c r="D44" t="s">
-        <v>10</v>
-      </c>
       <c r="E44" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="F44" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G44" t="s">
         <v>13</v>
       </c>
       <c r="H44" t="s">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="I44" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>77</v>
+      </c>
+      <c r="J44" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" t="n">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>36</v>
+        <v>79</v>
       </c>
       <c r="C45" t="s">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="D45" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="E45" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F45" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G45" t="s">
         <v>13</v>
       </c>
       <c r="H45" t="s">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="I45" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" t="n">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="C50" t="s">
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="D50" t="s">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="F50" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G50" t="s">
         <v>13</v>
       </c>
       <c r="H50" t="s">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="I50" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" t="n">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="C54" t="s">
-        <v>46</v>
+        <v>89</v>
       </c>
       <c r="D54" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="E54" t="s">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="F54" t="s">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="G54" t="s">
         <v>13</v>
       </c>
       <c r="H54" t="s">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="I54" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>88</v>
+      </c>
+      <c r="J54" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>94</v>
+      </c>
+      <c r="C57" t="s">
+        <v>95</v>
+      </c>
+      <c r="D57" t="s">
+        <v>96</v>
+      </c>
+      <c r="E57" t="s">
+        <v>47</v>
+      </c>
+      <c r="F57" t="s">
+        <v>97</v>
+      </c>
+      <c r="G57" t="s">
+        <v>98</v>
+      </c>
+      <c r="H57" t="s">
+        <v>99</v>
+      </c>
+      <c r="I57" t="s">
+        <v>94</v>
+      </c>
+      <c r="J57" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" t="n">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="C59" t="s">
-        <v>52</v>
+        <v>102</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="E59" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="G59" t="s">
         <v>13</v>
       </c>
       <c r="H59" t="s">
-        <v>54</v>
+        <v>103</v>
       </c>
       <c r="I59" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>104</v>
+      </c>
+      <c r="J59" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" t="n">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="C63" t="s">
-        <v>57</v>
+        <v>107</v>
       </c>
       <c r="D63" t="s">
-        <v>58</v>
+        <v>108</v>
       </c>
       <c r="E63" t="s">
-        <v>59</v>
+        <v>109</v>
       </c>
       <c r="F63" t="s">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="G63" t="s">
         <v>13</v>
       </c>
       <c r="H63" t="s">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="I63" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>106</v>
+      </c>
+      <c r="J63" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" t="n">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>61</v>
+        <v>112</v>
       </c>
       <c r="C65" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="D65" t="s">
+        <v>71</v>
+      </c>
+      <c r="E65" t="s">
         <v>47</v>
       </c>
-      <c r="E65" t="s">
-        <v>28</v>
-      </c>
       <c r="F65" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G65" t="s">
         <v>13</v>
       </c>
       <c r="H65" t="s">
-        <v>63</v>
+        <v>114</v>
       </c>
       <c r="I65" t="s">
-        <v>64</v>
+        <v>115</v>
+      </c>
+      <c r="J65" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/output/lagou.xlsx
+++ b/output/lagou.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="123">
   <si>
     <t>corp_name</t>
   </si>
@@ -439,6 +439,24 @@
   </si>
   <si>
     <t>http://www.foreseeuniverse.com</t>
+  </si>
+  <si>
+    <t>搜狐</t>
+  </si>
+  <si>
+    <t>北京搜狐新媒体信息技术有限公司</t>
+  </si>
+  <si>
+    <t>移动互联网,文化娱乐</t>
+  </si>
+  <si>
+    <t>搜狐集团是中国领先的新媒体、网络游戏、搜索及无线互联网服务公司，拥有搜狐公司（NASDAQ: SOHU）和畅游公司（NASDAQ:CYOU）两家美国纳斯达克上市公司，是中文世界最强劲的互联网品牌。“搜狐”在中国是家喻户晓的名字，为中国近6亿的互联网和移动互联网用户提供全面网络服务。</t>
+  </si>
+  <si>
+    <t>搜狐新闻客户端,搜狐焦点-首付贷,搜狐视频</t>
+  </si>
+  <si>
+    <t>http://www.sohu.com</t>
   </si>
 </sst>
 </file>
@@ -775,7 +793,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J65"/>
+  <dimension ref="A1:J73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1432,6 +1450,38 @@
       </c>
       <c r="J65" t="s">
         <v>116</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>117</v>
+      </c>
+      <c r="C73" t="s">
+        <v>118</v>
+      </c>
+      <c r="D73" t="s">
+        <v>119</v>
+      </c>
+      <c r="E73" t="s">
+        <v>90</v>
+      </c>
+      <c r="F73" t="s">
+        <v>91</v>
+      </c>
+      <c r="G73" t="s">
+        <v>13</v>
+      </c>
+      <c r="H73" t="s">
+        <v>120</v>
+      </c>
+      <c r="I73" t="s">
+        <v>121</v>
+      </c>
+      <c r="J73" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/output/lagou.xlsx
+++ b/output/lagou.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="215">
   <si>
     <t>corp_name</t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t>花生共和团队组建于2011年下半年，并在2012年1月份正式上线，旨在为用户提供实用的穿衣搭配的时尚百科。只需一个时尚关键词，就可以获得从时尚知识点、资讯、单品、搭配灵感及时尚搭配心得的时尚全解决方案。让用户可以根据自己的身材、肤色、气质找到适合自己的时尚搭配风格。</t>
+  </si>
+  <si>
+    <t>http://www.hsgh.com</t>
   </si>
   <si>
     <t>极品无限</t>
@@ -135,6 +138,9 @@
 1、真格基金天使基金
 2、华创Pre-A投资
 3、中关村雏鹰人才计划成员企业。</t>
+  </si>
+  <si>
+    <t>http://www.ichezhen.com</t>
   </si>
   <si>
     <t>天翼科技创业投资有限公司</t>
@@ -457,6 +463,373 @@
   </si>
   <si>
     <t>http://www.sohu.com</t>
+  </si>
+  <si>
+    <t>爱宝宝</t>
+  </si>
+  <si>
+    <t>深圳爱宝宝网络科技有限公司</t>
+  </si>
+  <si>
+    <t>苏州</t>
+  </si>
+  <si>
+    <t>“爱宝宝”是国内最具影响力的幼教生活服务提供商，致力于帮助家长和老师实现无缝的交流和分享。向家长提供孩子成长过程中所需的娱乐、教育、健康、安全等生活类增值服务。
+“让每一个孩子都拥有美妙的童年”是我们的使命，也是我们的愿景！
+我们希望“爱宝宝”能够推动中国应试式教育现状的变革，能推动中国基础幼儿教育的进步，继而推动社会的进步！
+如果，你热爱幼儿教育事业
+如果，你热爱互联网
+如果，你拥有梦想
+那么，为什么不选择加入我们？！
+你会发现
+你从事的工作充满想象力，你想到的，我们一起通过技术，让它变为现实
+你从事的是富有社会价值的事业，理想和工作合二为一；
+你有你发挥能力的巨大空间，大到让你悔恨你从前荒废的岁月；
+你拥有公司的股权，让你从此有一个属于自己的创业平台；
+你有稳定的薪水，随着能力和贡献的增加而不断提升；
+你会和一批拥有专业能力、充满激情的理想的、乐于助人善于沟通的同事共事。而且，他们还很宽容、风趣和快乐！
+让每一个孩子都拥有美妙的童年！是我们的使命，也是我们的愿景！
+请有意向的未来同事，登陆本公司网站（http://www.abaobao.net），以获得更多公司产品信息。
+公司已获多笔风投，众多职位虚席以待，期待您的加盟！
+公司福利
+1.社会保险；
+2.提供职业培训；
+3.享受带薪年假；
+4.定期集体户外活动以及每月员工生日会；
+5.参加员工持股计划；
+6.职位晋升及持续发展空间。</t>
+  </si>
+  <si>
+    <t>http://www.abaobao.net</t>
+  </si>
+  <si>
+    <t>嘀嗒拼车</t>
+  </si>
+  <si>
+    <t>北京畅行信息技术有限公司</t>
+  </si>
+  <si>
+    <t>移动互联网,O2O</t>
+  </si>
+  <si>
+    <t>嘀嗒拼车（www.didapinche.com）成立于2014年，是全国最大也是成长最快的P2P在线拼车平台。2014~2015年不到一年连续获得A轮, B轮和C轮合计1.3亿美金融资,  创业内之奇迹。公司创始人来自Google, 百度, 宝洁等知名外企，期望更多优秀人才加盟。
+这是一个能"拼"的公司，"让出行变得愉悦和有趣"是我们的伟大使命，我们憧憬着"路上没有空车"的未来出行生活。推荐他人入职，还可获得Mac air一台哦！嘀嗒拼车的“带头大拼”是宋中杰，他和他的创业小伙伴们曾服务于多个著名的互联网和IT巨头公司，比如：Google，Baidu，Yahoo，Nokia，HP。所以，他们都出来拼了，你还更待何时？我们信奉的文化“拼”字当头，拼命工作，快乐生活！当然这不影响“结果导向，自我激励，共同成长”这三条成为我们的行事准则。福利待遇：1）免费晚餐、加班报销回家路费；2）水果、饮料、咖啡免费管饱；3）生日会、出游、团建月月不同；2）五险一金？这都不是事儿！3）带薪年假，全薪病假！4）以及传说中的金手铐——期权激励哦！公司地址：北京地址：北京市朝阳区望京SOHO上海地址：上海市长宁区定西路银统大厦广州地址：广州市天河区天河北路侨林街43号中旅商务大厦</t>
+  </si>
+  <si>
+    <t>http://www.didapinche.com</t>
+  </si>
+  <si>
+    <t>鲜果</t>
+  </si>
+  <si>
+    <t>北京智信环宇科技有限公司</t>
+  </si>
+  <si>
+    <t>鲜果是国内最大的在线订阅服务提供商，创建于2007年。
+鲜果的愿景，就是做好移动阅读这件事情。希望能让更多的人通过鲜果，阅读到自己喜欢的、更有价值的资讯，包括新闻、博客、电子图书、小说连载等等。</t>
+  </si>
+  <si>
+    <t>http://xianguo.com</t>
+  </si>
+  <si>
+    <t>木瓜移动</t>
+  </si>
+  <si>
+    <t>北京木瓜移动科技有限公司</t>
+  </si>
+  <si>
+    <t>木瓜移动由清华、斯坦福、谷歌背景的海归精英团队成立于2008年，致力于打造一个面向全球的移动互联网平台。公司专注于移动互联网广告的精准化、程序化投放，基于大数据技术，通过其自有的互联网广告平台为广告主提供覆盖全球主要互联网媒体资源的广告投放策略和技术解决方案。木瓜移动是典型的以技术为导向的高科技公司，拥有超过20亿移动终端设备数据，对设备用户信息刻画可达超过50个维度的标签；每秒能够分析15万个竞标需求、5000万个决策、3亿个属性；全球9个数据中心共4500个CPU；每天处理全球10亿个交易；每个交易能在100毫秒内完成。同时，木瓜广告在海外地区拥有大量媒体资源，覆盖海外200多个国家和地区，能够接入的应用超过82,000款，能够触及到的全球用户达数以10亿计，每天为单一广告主即可提供高达50万的安装量。木瓜移动是率先进入全球程序化移动广告平台的先驱者之一，主要服务的客户包括百度，阿里巴巴，奇虎360，3G门户、雨燕、唯品会等国内移动互联网出海大鳄，以及美国的Uber, Yahoo, Match.com,印度的Flipkart, PayTM等海外著名企业。</t>
+  </si>
+  <si>
+    <t>木瓜广告,木瓜实验室</t>
+  </si>
+  <si>
+    <t>http://cn.papayamobile.com/</t>
+  </si>
+  <si>
+    <t>第九课堂</t>
+  </si>
+  <si>
+    <t>北京畅问思奇网络科技有限公司</t>
+  </si>
+  <si>
+    <t>电子商务,教育</t>
+  </si>
+  <si>
+    <t>第九课堂是国内一家专注于互联网和创业领域的个人技能交易培训网络平台，在这个网站，你可以找到各式各样丰富多彩的课程并学习技能，而每个人都可以通过线上发布课程，并在线下授课。第九课堂开创了Oline to Offline的个人技能培训交易模式。
+旗下有第九课堂广告文案训练营、第九课堂产品经理训练营等自营精品培训课程，目前已经在国内北京、上海、广州、深圳、杭州、成都、武汉、福州、西安等地先后服务超过1600家公司的市场营销、文案创意、互联网产品经理以及运营相关领域人才共计3000余人。
+独行快，但众行远；
+第九课堂互联网教育团队期待你的加入！</t>
+  </si>
+  <si>
+    <t>http://www.dijiuke.com</t>
+  </si>
+  <si>
+    <t>阿里巴巴移动事业群-高德</t>
+  </si>
+  <si>
+    <t>高德软件有限公司</t>
+  </si>
+  <si>
+    <t xml:space="preserve">阿里巴巴移动事业群，整合阿里巴巴集团相关优势资源组建, 旗下拥有高德地图、UC浏览器、神马搜索、九游、阿里文学、PP助手等多个行业领先的移动互联网产品及平台，为用户提供多领域、全方位的移动互联网服务。阿里移动事业群专注移动互联网业务创新，致力于打造简单，可信赖的移动互联网信息服务平台，用技术和数据创造变量。
+高德地图作为国内唯一在数据生产和互联网产品两个层面都拥有专业能力的互联网地图厂商，致力于为用户提供丰富的移动互联网服务。同时为包括奥迪、宝马、奔驰、上海大众、上海通用等国内外十多个汽车品牌的100多个车型提供导航数据产品和服务。高德地图在手机端用户超过3亿，为用户提供躲避拥堵、公交导航、室内地图等核心出行功能。
+UC浏览器是UC优视的核心产品，拥有独创的U3内核和云端架构，是中国移动浏览器NO.1。UC浏览器覆盖了Android、iOS、Windows Phone、Symbian等主流智能移动操作系统的200多个著名品牌、超过3000款手机和平板电脑。2014年12月，UC浏览器日活跃用户突破1亿。
+神马是中国第二大移动搜索引擎，致力于为用户创造方便、快捷、开放的移动搜索新体验，由UC优视与中国互联网行业领军企业阿里巴巴共同发起组建，并由来自微软、谷歌、百度、360等国内外IT公司的资深员工所组成。目前，神马在国内移动搜索引擎市场的渗透率已经超过了20%，月度活跃用户数也达到了1亿。
+UC九游是中国移动游戏领域的领军品牌，中国手机网游联运平台Top2。九游很好地继承了UC优视的用户资源优势和平台技术优势。目前九游已经成长为国内用户最多、活跃度最高、ARPU值最高的手机游戏开放平台之一，同时也是国内第一大Android游戏联运平台。
+阿里文学是新锐移动阅读开放平台。是阿里巴巴集团旗下的互联网文化娱乐品牌，以满足每个人随时随地享受阅读的乐趣为己任，打造最懂用户需求的网络文学平台。其下的产品和业务形态包括但不限于文学原创平台、阅读客户端、UC书城开放平台等。
+PP助手是国内领先的移动应用发行平台。它是首款同时支持iPhone、iPad、iTouch、Mac等iOS及Android设备的应用、游戏、壁纸、铃声资源的下载安装和管理工具，目前在iOS端用户达到6000万。2013年12月，UC优视宣布完成对PP助手的收购，完成了全平台强势渠道布局。
+</t>
+  </si>
+  <si>
+    <t>高德地图,神马搜索,UC</t>
+  </si>
+  <si>
+    <t>http://www.alibabagroup.com/cn/global/home</t>
+  </si>
+  <si>
+    <t>迅雷</t>
+  </si>
+  <si>
+    <t>深圳市迅雷网络技术有限公司</t>
+  </si>
+  <si>
+    <t>迅雷网络技术有限公司于2003年在深圳成立，以领先的云加速技术和系列产品为用户提供基于大容量娱乐数据传输的云计算服务，帮助用户在多终端上快速获得数字内容，从而推进大互联网时代的数据传输加速。截止到2014年3月31日，迅雷拥有超过63亿的数字多媒体文件索引，通过智能计算实现了内容加速的最大优化。根据用户海量行为数据，迅雷智能部署散布全国的分布式数据中心，建立了由上万台云加速服务器节点和全用户终端参与分享的众包网络，构成了迅雷独有的分布式混合云结构。同时，做为最早在云计算领域先行布局并拥有核心技术的企业，根据iResearch的数据，到2014年3月为止，迅雷云加速的月活跃用户为1.42亿，月独立访问用户约为2.04亿，在云加速产品和服务的市场占有率达84.1%，已经成长为中国覆盖范围最广、用户最多的云计算服务之一。与其他云计算企业相较，迅雷获取了由技术领先和用户规模带来的成本优势，实现了高性价比的云加速服务。
+ 2014年6月24日在美国纳斯达克上市，股票代码：XNET
+（手机也可找工作，投简历！关注“迅雷招聘”微信公众号，随时随地关注迅雷招聘动态，手指轻轻一点即可投递简历，使您的求职更加方便快捷！）</t>
+  </si>
+  <si>
+    <t>手机迅雷,迅雷影音,迅雷7.9</t>
+  </si>
+  <si>
+    <t>http://www.xunlei.com/about/</t>
+  </si>
+  <si>
+    <t>蘑菇街</t>
+  </si>
+  <si>
+    <t>杭州卷瓜网络有限公司</t>
+  </si>
+  <si>
+    <t>D轮及以上</t>
+  </si>
+  <si>
+    <t>杭州</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      美丽联合集团是女性时尚媒体和时尚消费平台，通过整合现在已有的资源，包括电商、社区、红人、内容等等，来服务于不同的女性用户。
+　　蘑菇街是集团旗下定位于年轻女性用户的时尚媒体与时尚消费类App，核心用户人群为 18-23 岁年轻女性用户。
+　　2015年，蘑菇街以当红明星李易峰和“我的买手街”的品牌定位，成功树立了自身以买手精选为核心理念的差异化品牌形象。
+　　2016年，迪丽热巴以首席体验官的身份代表广大用户加入蘑菇街，从而更好地为年轻女性用户提供从美妆、穿搭分享到时尚购物的一站式消费体验。
+</t>
+  </si>
+  <si>
+    <t>买手店&amp;星店,优店体系,Uni</t>
+  </si>
+  <si>
+    <t>http://www.mogujie.com/</t>
+  </si>
+  <si>
+    <t>蚂蜂窝</t>
+  </si>
+  <si>
+    <t>北京蚂蜂窝网络科技有限公司</t>
+  </si>
+  <si>
+    <t>移动互联网,旅游</t>
+  </si>
+  <si>
+    <t>蚂蜂窝旅行网（Mafengwo.com）
+中国领先的自由行服务平台，专注于从信息到产品的一站式解决方案。以自由行为核心，蚂蜂窝提供全球各地的签证、酒店、交通、邮轮、当地游等自由行产品交易和服务，以及游记、旅游攻略、旅游问答、旅游点评等可供决策信息。
+蚂蜂窝自由行服务平台上有中国最大的旅游社交网络，月均活跃用户数达8000万，蚂蜂窝的景点、餐饮、酒店等点评信息均来自用户的真实分享，每年帮助数亿的旅行者制定自由行方案。
+蚂蜂窝旅行网由陈罡和吕刚创立，自2010年开始公司化运营。蚂蜂窝的用户主要通过口碑获得，截至2015年9月30日，蚂蜂窝已拥有1亿用户，其中80%的用户来自移动端（蚂蜂窝自由行APP）。
+蚂蜂窝擅长站在自由行消费者的角度，帮助用户作出最佳的旅游消费决策。UGC（用户创造内容）、旅游大数据、自由行交易平台是蚂蜂窝的三大核心竞争力，基于游记和旅游攻略之上的社交基因是蚂蜂窝区别于其他在线旅游网站的本质特征。
+“心若自由，行则无忧”。蚂蜂窝旅行网的愿景是，对接全球优质旅游资源，为自由行消费者提供时尚流行、与众不同的产品和服务，引领中国自由行产业的发展。
+团队成员多数有优秀的互联网公司背景，优秀的团队，开放的文化以及为每个团队人员打造的发展机会，这里是有理想伙伴的天堂，还在犹豫什么？向崇尚自由的加勒比海盗致敬！</t>
+  </si>
+  <si>
+    <t>http://www.mafengwo.cn/</t>
+  </si>
+  <si>
+    <t>喜讯</t>
+  </si>
+  <si>
+    <t>喜讯无限（北京）科技有限责任公司</t>
+  </si>
+  <si>
+    <t>关于喜讯
+ 喜讯无限（北京）科技有限责任公司创立于2010年3月，先后获得雷军天使投资和北极光创投A轮的投资。公司致力于移动互联网ACG领域（英文Animation、Comic、Game），通过研发和发行精品产品获得营收，并积累用户对产品品牌的忠实度。目前自主研发的3D动作游戏《铁血战神》国内成绩优秀，正逐步进入海外市场。研发更多创新精品和进军国际市场是喜讯无限的发展目标。
+喜讯文化 
+ 创造快乐，分享喜讯
+ 自由，快乐，平等，分享，友爱，正直和感恩是每个喜讯人的天性；创造快乐，分享喜讯是我们深入骨髓的基因。</t>
+  </si>
+  <si>
+    <t>铁血战神</t>
+  </si>
+  <si>
+    <t>http://xixun.com</t>
+  </si>
+  <si>
+    <t>又拍云</t>
+  </si>
+  <si>
+    <t>杭州又拍云科技有限公司</t>
+  </si>
+  <si>
+    <t>生活服务</t>
+  </si>
+  <si>
+    <t>UPYUN（又拍云）创立于2010年，致力于为互联网和移动互联网企业提供非结构化数据的CDN加速、云存储、云处理服务。UPYUN是全国第一家将海量多媒体文件（图片、音视频）的网络加速、云端存储、云端处理融为一体的云服务商，并在行业内首家提供了按需计算、按需付费服务模式。2014年，UPYUN完成管理层MBO，成功引入国内知名风险投资机构千万级融资。UPYUN 已经在全国各地部署了130多个CDN节点、近3000台服务器，整体的带宽保有量达到了TB级别，整体资源保有量在全国所有的互联网企业中名列前十。现已服务10万家以上的企业，客户遍及移动互联网，游戏，电商，媒体，Web2.0等领域的知名企业，正在不断获得了来自行业内外高度认可。UPYUN总部位于杭州，在北京、上海、广州设立分公司，核心团队来自阿里、网宿、帝联、浙大网新等国内知名互联网公司。UPYUN关注每位员工的发展，立足创造广阔的发展空间，致力于打造团结、有活力的学习型团队，培养高素质、专业化人才，并提供具有竞争力的全面薪酬结构及福利：Ø 极具竞争力的薪酬 Ø 带薪休假及其他中国法律规定的假期Ø 五险一金（包括基本养老、医疗、工伤、失业、生育保险、住房公积金） Ø 定期体检Ø 弹性工作时间Ø 入职培训、在职培训、各种主题的交流培训Ø 导师管理制度Ø 公司年度旅游和团队活动，优秀员工海外游Ø 孝心卡制度Ø 笔记本电脑补助Ø 其他多项福利（生日福利、免费水果饮料等）</t>
+  </si>
+  <si>
+    <t>UPYUN</t>
+  </si>
+  <si>
+    <t>http://www.upyun.com/</t>
+  </si>
+  <si>
+    <t>九玉</t>
+  </si>
+  <si>
+    <t>九玉（北京）科技有限公司</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+想和清华、北大的学霸们，还有微软、雅虎的技术大大们一起过招吗？
+想加入一个年轻活力，严谨高效，有着聊不完的情怀的团队吗？
+创业3年，10个小伙伴，估值1个亿。想用你的智慧和努力让ta发展的更快更强吗？
+嗯，我们没有X总，没有CXO。你当然可以晚睡晚起，你必须可以自由选择工作时间；
+吶，我们有最好的电脑，最酷的显示器，灵感必须要肆意放飞；我们有丰盛的午餐、晚餐，无限量的零食水果、咖啡；吃胖了我们还负责到底，周末等着你滑雪、骑马……
+等着你，与我们一起体验超速成长的过程，一同分享丰厚的薪水期权，以及更美好的未来！
+公司产品APP“极邮”业已上线，最聪明的小伙伴们，做着最聪明的邮件客户端。
+岁月的成长挡不住青春的梦想。我们在等着你的加入！
+ 更多介绍请戳 www.jadenine.cn 
+在这里，你可以尽情和高手过招，随时提出自己的想法和意见！
+在这里，你可以接触到核心技术，与创业公司一同快速成长！
+这里还有不定期的聚餐旅行，无限量供应三餐和零食，小心一口吃成个胖子！
+</t>
+  </si>
+  <si>
+    <t>九玉科技</t>
+  </si>
+  <si>
+    <t>http://www.jadenine.cn</t>
+  </si>
+  <si>
+    <t>DerbySoft</t>
+  </si>
+  <si>
+    <t>德比软件（上海）有限公司</t>
+  </si>
+  <si>
+    <t>旅游</t>
+  </si>
+  <si>
+    <t xml:space="preserve">德比软件（上海）有限公司于2002年在上海成立，总部位于上海，目前在北京、美国、欧洲及日本设有分公司或拥有本地服务人员，现有员工超过200人。德比软件是专业从事旅游产品网络营销系统设计和旅游产品分销的技术服务公司，是一家拥有全部产品自主知识产权并为全球酒店业提供软件服务的公司，是全球提供对接服务最好，并且对接上线成功案例最多的公司。
+德比软件的任务是提供不同企业系统之间的对接和数据整合，最终"让旅游产品的交易变得很容易"。德比软件认为每一家旅游相关企业都会拥有自己的系统，将所有的系统连接在一起，共同借助中国及互联网的发展，建立公平、公正、高效、企业自主的全球旅游分销网络（GDN）。
+目前,德比软件拥有全球超过80，000家酒店数据，这些酒店数据来自洲际IHG、希尔顿Hilton、凯悦Hyatt、喜达屋Starwood、万豪Marriott、最佳西方BestWestern、卡尔森Carlson、精选Choice、温德姆Wyndham等顶级国际酒店集团，Sabre Hospitality （SynXis）、Trust、Generes等国际第三方CRS内的酒店，酒店联盟如金钥匙国际联盟，也包括如家、格林豪泰、锦江之星等中国连锁酒店和国内1000多家单体酒店。同时,德比软件的合作伙伴也包括全球重要地区顶级分销渠道，其中包括携程、艺龙、中航信、芒果、春秋等国内渠道，也包括Booking.com、Travelocity、GTA、Agoda、Wotif、TouricoHoliday、MakeMyTrip, Orbitz、Venere/Expedia、H.I.S、Laterooms/Asiarooms等国外渠道。还有搜索引擎及新兴渠道如Google、去哪儿、酷讯、淘宝直营店以及第三方微博应用等搜索引擎、移动和广告平台。
+</t>
+  </si>
+  <si>
+    <t>DHotelier6.0</t>
+  </si>
+  <si>
+    <t>http://www.derbysoft.com</t>
+  </si>
+  <si>
+    <t>拉勾网</t>
+  </si>
+  <si>
+    <t>北京拉勾网络技术有限公司</t>
+  </si>
+  <si>
+    <t>企业服务,招聘</t>
+  </si>
+  <si>
+    <t>拉勾网是专注于互联网行业招聘的网站。拉勾网拥有优质互联网资源，收集和发布圈内招聘信息，为求职者提供人性化、个性化的信息服务，以让优质人才和优秀企业及时相遇为己任。从拉勾网上线至今已有超过80000家互联网公司入驻，这其中既有百度、腾讯、阿里巴巴、新浪、优酷土豆、乐视网等成熟稳重的大企业，也有去哪儿、聚美优品、锤子科技、小米、豌豆荚等高速成长的行业新秀。企业覆盖领域包括互联网、移动互联网、电子商务、游戏、O2O、大数据、云计算、社交网络、互联网金融、在线教育、在线旅游等25个互联网细分市场。拉勾网垂直细分的特点，大大降低了求职者简历的误投率，同时也改变了“求职者—招聘网站—用人企业”的传统模式，让求职者直接面对用人企业，极大提高了企业的招聘效率。拉勾网相信：相对于传统招聘模式，撬动互联网职场的杠杆在求职者一端。只有首先汇聚大量的优质求职者，才能真正满足用人单位的需求，才能真正服务好用人单位。所以，拉勾网立志于解决传统招聘行业低效、不尊重求职者的痛点，保护求职者的利益，专注于为求职者提供更人性化、专业化的服务。</t>
+  </si>
+  <si>
+    <t>易法客</t>
+  </si>
+  <si>
+    <t>广州易法客网络技术有限公司</t>
+  </si>
+  <si>
+    <t>电子商务 ,社交网络</t>
+  </si>
+  <si>
+    <t>广州</t>
+  </si>
+  <si>
+    <t>公司介绍
+您看见未来了吗？全民创业、法治国家
+总理都说了，开公司创业必须注意法律风险，易法客让所有的中小企业，创业企业不花钱或花很少的钱就可以解决企的全部法务问题，实现创业无忧。
+易法客四个国内第一
+【1】国内第一B2C模式的在线法律服务商，法律界的京东。
+【2】国内第一家将法律服务产品化及标准
+【3】合同宝国内首创，可以让任何任何企业或个人，无需法律专业背景，在线自助生成一份非常专y【4】服务创新，对初创企业全部免费，合同起草免费，合同审核免费，自助合同免费，商标注册免费，公司注册免费。
+易法客，您不可不知的在在线法律服务商，开公司、做生意、投资、合伙离不开易法客。</t>
+  </si>
+  <si>
+    <t>易法客,合同宝、结婚宝、离婚宝</t>
+  </si>
+  <si>
+    <t>http://www.yifake.com</t>
+  </si>
+  <si>
+    <t>CC视频</t>
+  </si>
+  <si>
+    <t>北京梦之窗数码科技有限公司</t>
+  </si>
+  <si>
+    <t>数据服务,文化娱乐</t>
+  </si>
+  <si>
+    <t xml:space="preserve">创盛视联数码科技（北京）有限公司（CC视频），于2005年4月在北京创立，是一家拥有自主知识产权的高新技术企业。公司凭借领先的云计算技术和专业的视频处理经验，针对客户的需求不断创新，向教育、广电新媒体、互联网、移动互联网、政府企业等领域的18000多家客户提供基于云计算的视频云直播、视频云点播、视频云加速的整体解决方案，成为华为、芒果TV、亚马逊、万科、斯巴鲁、华图、新东方、达内、尚德、清华大学、学堂在线、财新网、凤凰网、上海通用、唱吧、宝宝树等众多知名企事业单位的首选合作伙伴。
+公司致力于为客户实现更快更稳定的视频播放体验，帮助客户更高效地经营视频获得传播、盈利、品牌的运营价值。
+技术优势：
+在服务客户18000家、存储能力100PB
+专注视频11年、视频功能135个
+日均点击量5000万、带宽储备1T
+可用性99.99%、研发投入70%
+企业使命： 让视频应用更轻松
+我们愿意为员工提供：
+- 开放、公平、独立的小团队工作伙伴关系和宽松、灵活的工作环境（弹性上下班时间），让你更好的发挥工作潜能。 - 管理及技术专家的双向成长模式，帮助你更好的实现职业梦想规划。 - 我们提倡“匠人精神“的敬业理念，保证你所付出的能得到你应所得。 - 丰富的业余活动安排（公司羽毛球队、篮球队、游泳队，桌游队等），让你在繁杂的工作中得以休息解脱。 - 我们通过组织内部裂变模式成立项目小组，采用众筹模式经营管理，充分尊重互联网的创新模式。
+- 对产品研发团队培养费用的投入（定期参加内外培训活动、成立创造研习社进行互动分享、参加各类互联网论坛会议等），让你更快的突破成长瓶颈，得到更好的发展机会。 -全员的年度体检、年度拓展培训、年度企业大趴、每月的团队活动吃喝玩乐补贴、月度生日轻松时刻，一系列福利活动等你来搞。 请加入我们， 我们将为你打造： 发挥自我的平台， 提升自我的平台， 我们坚持公正对待每个人，客观评价每个人的能力和进步，英雄一定会享受成功的喜悦！ 您将获得的是公正而有竞争力的薪酬，同时获得一个提升自我价值和薪酬的通道！我们希望您是个有追求、有血性、有执行力、有创新精神的人才。
+进一步了解我们请移步：
+官方微信：CC视频官方
+  新浪官方微博：weibo.com/bokecc
+  官方网站：http://www.bokecc.com
+</t>
+  </si>
+  <si>
+    <t>视频云平台</t>
+  </si>
+  <si>
+    <t>http://www.bokecc.com</t>
+  </si>
+  <si>
+    <t>约拍</t>
+  </si>
+  <si>
+    <t>北京西瓜藤网络科技有限公司</t>
+  </si>
+  <si>
+    <t>O2O</t>
+  </si>
+  <si>
+    <t>约拍-约摄影师、拍我想拍！
+绕过影楼，为消费者与摄影师搭建一个对接的平台，通过O2O方式颠覆传统影楼行业。
+公司近况：
+1.目前已经完成了天使轮 千万级的融资。
+我们的投资人有：
+1）唱吧CEO陈华：http://stock.hexun.com/2014-09-12/168428488.html
+2）梅花天使创始人吴世春：http://baike.baidu.com/view/4524555.htm?fr=aladdin
+3）天使汇100X合投：http://100x.angelcrunch.com/
+2.入选《创业家》最值得投资的服务O2O公司TOP10</t>
+  </si>
+  <si>
+    <t>http://51yuepai.com/</t>
   </si>
 </sst>
 </file>
@@ -793,7 +1166,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J73"/>
+  <dimension ref="A1:J167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -890,37 +1263,40 @@
       <c r="I11" t="s">
         <v>17</v>
       </c>
+      <c r="J11" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="n">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G12" t="s">
         <v>13</v>
       </c>
       <c r="H12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -928,28 +1304,31 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" t="s">
+        <v>36</v>
+      </c>
+      <c r="I15" t="s">
         <v>31</v>
       </c>
-      <c r="D15" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" t="s">
-        <v>33</v>
-      </c>
-      <c r="F15" t="s">
-        <v>34</v>
-      </c>
-      <c r="G15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" t="s">
-        <v>35</v>
-      </c>
-      <c r="I15" t="s">
-        <v>30</v>
+      <c r="J15" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -957,28 +1336,28 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C22" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F22" t="s">
         <v>20</v>
       </c>
       <c r="G22" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H22" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I22" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -986,31 +1365,31 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C25" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D25" t="s">
         <v>19</v>
       </c>
       <c r="E25" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F25" t="s">
         <v>20</v>
       </c>
       <c r="G25" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H25" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I25" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J25" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1018,28 +1397,28 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C29" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E29" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F29" t="s">
         <v>12</v>
       </c>
       <c r="G29" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H29" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I29" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1047,31 +1426,31 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C31" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D31" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E31" t="s">
         <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G31" t="s">
         <v>13</v>
       </c>
       <c r="H31" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I31" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J31" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1079,16 +1458,16 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C33" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D33" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E33" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F33" t="s">
         <v>20</v>
@@ -1097,13 +1476,13 @@
         <v>13</v>
       </c>
       <c r="H33" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I33" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J33" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -1111,13 +1490,13 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C39" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D39" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E39" t="s">
         <v>11</v>
@@ -1129,13 +1508,13 @@
         <v>13</v>
       </c>
       <c r="H39" t="s">
+        <v>64</v>
+      </c>
+      <c r="I39" t="s">
         <v>62</v>
       </c>
-      <c r="I39" t="s">
-        <v>60</v>
-      </c>
       <c r="J39" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -1143,13 +1522,13 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C42" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D42" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E42" t="s">
         <v>11</v>
@@ -1161,13 +1540,13 @@
         <v>13</v>
       </c>
       <c r="H42" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I42" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="J42" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -1175,31 +1554,31 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C43" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D43" t="s">
+        <v>73</v>
+      </c>
+      <c r="E43" t="s">
+        <v>49</v>
+      </c>
+      <c r="F43" t="s">
+        <v>27</v>
+      </c>
+      <c r="G43" t="s">
+        <v>39</v>
+      </c>
+      <c r="H43" t="s">
+        <v>74</v>
+      </c>
+      <c r="I43" t="s">
         <v>71</v>
       </c>
-      <c r="E43" t="s">
-        <v>47</v>
-      </c>
-      <c r="F43" t="s">
-        <v>26</v>
-      </c>
-      <c r="G43" t="s">
-        <v>37</v>
-      </c>
-      <c r="H43" t="s">
-        <v>72</v>
-      </c>
-      <c r="I43" t="s">
-        <v>69</v>
-      </c>
       <c r="J43" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -1207,31 +1586,31 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C44" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D44" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E44" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F44" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G44" t="s">
         <v>13</v>
       </c>
       <c r="H44" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I44" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J44" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -1239,16 +1618,16 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C45" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D45" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E45" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F45" t="s">
         <v>20</v>
@@ -1257,10 +1636,10 @@
         <v>13</v>
       </c>
       <c r="H45" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I45" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -1268,28 +1647,28 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C50" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D50" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E50" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F50" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G50" t="s">
         <v>13</v>
       </c>
       <c r="H50" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I50" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -1297,31 +1676,31 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C54" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D54" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E54" t="s">
+        <v>92</v>
+      </c>
+      <c r="F54" t="s">
+        <v>93</v>
+      </c>
+      <c r="G54" t="s">
+        <v>13</v>
+      </c>
+      <c r="H54" t="s">
+        <v>94</v>
+      </c>
+      <c r="I54" t="s">
         <v>90</v>
       </c>
-      <c r="F54" t="s">
-        <v>91</v>
-      </c>
-      <c r="G54" t="s">
-        <v>13</v>
-      </c>
-      <c r="H54" t="s">
-        <v>92</v>
-      </c>
-      <c r="I54" t="s">
-        <v>88</v>
-      </c>
       <c r="J54" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -1329,31 +1708,31 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C57" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D57" t="s">
+        <v>98</v>
+      </c>
+      <c r="E57" t="s">
+        <v>49</v>
+      </c>
+      <c r="F57" t="s">
+        <v>99</v>
+      </c>
+      <c r="G57" t="s">
+        <v>100</v>
+      </c>
+      <c r="H57" t="s">
+        <v>101</v>
+      </c>
+      <c r="I57" t="s">
         <v>96</v>
       </c>
-      <c r="E57" t="s">
-        <v>47</v>
-      </c>
-      <c r="F57" t="s">
-        <v>97</v>
-      </c>
-      <c r="G57" t="s">
-        <v>98</v>
-      </c>
-      <c r="H57" t="s">
-        <v>99</v>
-      </c>
-      <c r="I57" t="s">
-        <v>94</v>
-      </c>
       <c r="J57" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -1361,13 +1740,13 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C59" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D59" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E59" t="s">
         <v>11</v>
@@ -1379,13 +1758,13 @@
         <v>13</v>
       </c>
       <c r="H59" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I59" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="J59" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -1393,31 +1772,31 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C63" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D63" t="s">
+        <v>110</v>
+      </c>
+      <c r="E63" t="s">
+        <v>111</v>
+      </c>
+      <c r="F63" t="s">
+        <v>93</v>
+      </c>
+      <c r="G63" t="s">
+        <v>13</v>
+      </c>
+      <c r="H63" t="s">
+        <v>112</v>
+      </c>
+      <c r="I63" t="s">
         <v>108</v>
       </c>
-      <c r="E63" t="s">
-        <v>109</v>
-      </c>
-      <c r="F63" t="s">
-        <v>91</v>
-      </c>
-      <c r="G63" t="s">
-        <v>13</v>
-      </c>
-      <c r="H63" t="s">
-        <v>110</v>
-      </c>
-      <c r="I63" t="s">
-        <v>106</v>
-      </c>
       <c r="J63" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -1425,16 +1804,16 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C65" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D65" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E65" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F65" t="s">
         <v>20</v>
@@ -1443,13 +1822,13 @@
         <v>13</v>
       </c>
       <c r="H65" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I65" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="J65" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="73" spans="1:10">
@@ -1457,31 +1836,575 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C73" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D73" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E73" t="s">
+        <v>92</v>
+      </c>
+      <c r="F73" t="s">
+        <v>93</v>
+      </c>
+      <c r="G73" t="s">
+        <v>13</v>
+      </c>
+      <c r="H73" t="s">
+        <v>122</v>
+      </c>
+      <c r="I73" t="s">
+        <v>123</v>
+      </c>
+      <c r="J73" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
+      <c r="A78" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>125</v>
+      </c>
+      <c r="C78" t="s">
+        <v>126</v>
+      </c>
+      <c r="D78" t="s">
+        <v>33</v>
+      </c>
+      <c r="E78" t="s">
+        <v>49</v>
+      </c>
+      <c r="F78" t="s">
+        <v>12</v>
+      </c>
+      <c r="G78" t="s">
+        <v>127</v>
+      </c>
+      <c r="H78" t="s">
+        <v>128</v>
+      </c>
+      <c r="I78" t="s">
+        <v>125</v>
+      </c>
+      <c r="J78" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
+      <c r="A81" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>130</v>
+      </c>
+      <c r="C81" t="s">
+        <v>131</v>
+      </c>
+      <c r="D81" t="s">
+        <v>132</v>
+      </c>
+      <c r="E81" t="s">
+        <v>111</v>
+      </c>
+      <c r="F81" t="s">
+        <v>12</v>
+      </c>
+      <c r="G81" t="s">
+        <v>13</v>
+      </c>
+      <c r="H81" t="s">
+        <v>133</v>
+      </c>
+      <c r="I81" t="s">
+        <v>130</v>
+      </c>
+      <c r="J81" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
+      <c r="A87" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>135</v>
+      </c>
+      <c r="C87" t="s">
+        <v>136</v>
+      </c>
+      <c r="D87" t="s">
+        <v>33</v>
+      </c>
+      <c r="E87" t="s">
+        <v>11</v>
+      </c>
+      <c r="F87" t="s">
+        <v>12</v>
+      </c>
+      <c r="G87" t="s">
+        <v>13</v>
+      </c>
+      <c r="H87" t="s">
+        <v>137</v>
+      </c>
+      <c r="I87" t="s">
+        <v>135</v>
+      </c>
+      <c r="J87" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
+      <c r="A89" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>139</v>
+      </c>
+      <c r="C89" t="s">
+        <v>140</v>
+      </c>
+      <c r="D89" t="s">
+        <v>33</v>
+      </c>
+      <c r="E89" t="s">
+        <v>92</v>
+      </c>
+      <c r="F89" t="s">
+        <v>27</v>
+      </c>
+      <c r="G89" t="s">
+        <v>13</v>
+      </c>
+      <c r="H89" t="s">
+        <v>141</v>
+      </c>
+      <c r="I89" t="s">
+        <v>142</v>
+      </c>
+      <c r="J89" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
+      <c r="A91" t="n">
         <v>90</v>
       </c>
-      <c r="F73" t="s">
+      <c r="B91" t="s">
+        <v>144</v>
+      </c>
+      <c r="C91" t="s">
+        <v>145</v>
+      </c>
+      <c r="D91" t="s">
+        <v>146</v>
+      </c>
+      <c r="E91" t="s">
+        <v>34</v>
+      </c>
+      <c r="F91" t="s">
+        <v>20</v>
+      </c>
+      <c r="G91" t="s">
+        <v>100</v>
+      </c>
+      <c r="H91" t="s">
+        <v>147</v>
+      </c>
+      <c r="I91" t="s">
+        <v>144</v>
+      </c>
+      <c r="J91" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
+      <c r="A92" t="n">
         <v>91</v>
       </c>
-      <c r="G73" t="s">
-        <v>13</v>
-      </c>
-      <c r="H73" t="s">
-        <v>120</v>
-      </c>
-      <c r="I73" t="s">
-        <v>121</v>
-      </c>
-      <c r="J73" t="s">
-        <v>122</v>
+      <c r="B92" t="s">
+        <v>149</v>
+      </c>
+      <c r="C92" t="s">
+        <v>150</v>
+      </c>
+      <c r="D92" t="s">
+        <v>33</v>
+      </c>
+      <c r="E92" t="s">
+        <v>92</v>
+      </c>
+      <c r="F92" t="s">
+        <v>93</v>
+      </c>
+      <c r="G92" t="s">
+        <v>13</v>
+      </c>
+      <c r="H92" t="s">
+        <v>151</v>
+      </c>
+      <c r="I92" t="s">
+        <v>152</v>
+      </c>
+      <c r="J92" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
+      <c r="A102" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>154</v>
+      </c>
+      <c r="C102" t="s">
+        <v>155</v>
+      </c>
+      <c r="D102" t="s">
+        <v>33</v>
+      </c>
+      <c r="E102" t="s">
+        <v>92</v>
+      </c>
+      <c r="F102" t="s">
+        <v>99</v>
+      </c>
+      <c r="G102" t="s">
+        <v>100</v>
+      </c>
+      <c r="H102" t="s">
+        <v>156</v>
+      </c>
+      <c r="I102" t="s">
+        <v>157</v>
+      </c>
+      <c r="J102" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
+      <c r="A109" t="n">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>159</v>
+      </c>
+      <c r="C109" t="s">
+        <v>160</v>
+      </c>
+      <c r="D109" t="s">
+        <v>73</v>
+      </c>
+      <c r="E109" t="s">
+        <v>161</v>
+      </c>
+      <c r="F109" t="s">
+        <v>99</v>
+      </c>
+      <c r="G109" t="s">
+        <v>162</v>
+      </c>
+      <c r="H109" t="s">
+        <v>163</v>
+      </c>
+      <c r="I109" t="s">
+        <v>164</v>
+      </c>
+      <c r="J109" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
+      <c r="A110" t="n">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>166</v>
+      </c>
+      <c r="C110" t="s">
+        <v>167</v>
+      </c>
+      <c r="D110" t="s">
+        <v>168</v>
+      </c>
+      <c r="E110" t="s">
+        <v>111</v>
+      </c>
+      <c r="F110" t="s">
+        <v>27</v>
+      </c>
+      <c r="G110" t="s">
+        <v>13</v>
+      </c>
+      <c r="H110" t="s">
+        <v>169</v>
+      </c>
+      <c r="I110" t="s">
+        <v>166</v>
+      </c>
+      <c r="J110" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
+      <c r="A125" t="n">
+        <v>124</v>
+      </c>
+      <c r="B125" t="s">
+        <v>171</v>
+      </c>
+      <c r="C125" t="s">
+        <v>172</v>
+      </c>
+      <c r="D125" t="s">
+        <v>33</v>
+      </c>
+      <c r="E125" t="s">
+        <v>11</v>
+      </c>
+      <c r="F125" t="s">
+        <v>20</v>
+      </c>
+      <c r="G125" t="s">
+        <v>13</v>
+      </c>
+      <c r="H125" t="s">
+        <v>173</v>
+      </c>
+      <c r="I125" t="s">
+        <v>174</v>
+      </c>
+      <c r="J125" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
+      <c r="A127" t="n">
+        <v>126</v>
+      </c>
+      <c r="B127" t="s">
+        <v>176</v>
+      </c>
+      <c r="C127" t="s">
+        <v>177</v>
+      </c>
+      <c r="D127" t="s">
+        <v>178</v>
+      </c>
+      <c r="E127" t="s">
+        <v>49</v>
+      </c>
+      <c r="F127" t="s">
+        <v>27</v>
+      </c>
+      <c r="G127" t="s">
+        <v>162</v>
+      </c>
+      <c r="H127" t="s">
+        <v>179</v>
+      </c>
+      <c r="I127" t="s">
+        <v>180</v>
+      </c>
+      <c r="J127" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
+      <c r="A140" t="n">
+        <v>139</v>
+      </c>
+      <c r="B140" t="s">
+        <v>182</v>
+      </c>
+      <c r="C140" t="s">
+        <v>183</v>
+      </c>
+      <c r="D140" t="s">
+        <v>33</v>
+      </c>
+      <c r="E140" t="s">
+        <v>11</v>
+      </c>
+      <c r="F140" t="s">
+        <v>20</v>
+      </c>
+      <c r="G140" t="s">
+        <v>13</v>
+      </c>
+      <c r="H140" t="s">
+        <v>184</v>
+      </c>
+      <c r="I140" t="s">
+        <v>185</v>
+      </c>
+      <c r="J140" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
+      <c r="A147" t="n">
+        <v>146</v>
+      </c>
+      <c r="B147" t="s">
+        <v>187</v>
+      </c>
+      <c r="C147" t="s">
+        <v>188</v>
+      </c>
+      <c r="D147" t="s">
+        <v>189</v>
+      </c>
+      <c r="E147" t="s">
+        <v>111</v>
+      </c>
+      <c r="F147" t="s">
+        <v>27</v>
+      </c>
+      <c r="G147" t="s">
+        <v>39</v>
+      </c>
+      <c r="H147" t="s">
+        <v>190</v>
+      </c>
+      <c r="I147" t="s">
+        <v>191</v>
+      </c>
+      <c r="J147" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
+      <c r="A148" t="n">
+        <v>147</v>
+      </c>
+      <c r="B148" t="s">
+        <v>193</v>
+      </c>
+      <c r="C148" t="s">
+        <v>194</v>
+      </c>
+      <c r="D148" t="s">
+        <v>195</v>
+      </c>
+      <c r="E148" t="s">
+        <v>111</v>
+      </c>
+      <c r="F148" t="s">
+        <v>27</v>
+      </c>
+      <c r="G148" t="s">
+        <v>13</v>
+      </c>
+      <c r="H148" t="s">
+        <v>196</v>
+      </c>
+      <c r="I148" t="s">
+        <v>193</v>
+      </c>
+      <c r="J148" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10">
+      <c r="A158" t="n">
+        <v>157</v>
+      </c>
+      <c r="B158" t="s">
+        <v>197</v>
+      </c>
+      <c r="C158" t="s">
+        <v>198</v>
+      </c>
+      <c r="D158" t="s">
+        <v>199</v>
+      </c>
+      <c r="E158" t="s">
+        <v>11</v>
+      </c>
+      <c r="F158" t="s">
+        <v>20</v>
+      </c>
+      <c r="G158" t="s">
+        <v>200</v>
+      </c>
+      <c r="H158" t="s">
+        <v>201</v>
+      </c>
+      <c r="I158" t="s">
+        <v>202</v>
+      </c>
+      <c r="J158" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10">
+      <c r="A161" t="n">
+        <v>160</v>
+      </c>
+      <c r="B161" t="s">
+        <v>204</v>
+      </c>
+      <c r="C161" t="s">
+        <v>205</v>
+      </c>
+      <c r="D161" t="s">
+        <v>206</v>
+      </c>
+      <c r="E161" t="s">
+        <v>49</v>
+      </c>
+      <c r="F161" t="s">
+        <v>27</v>
+      </c>
+      <c r="G161" t="s">
+        <v>13</v>
+      </c>
+      <c r="H161" t="s">
+        <v>207</v>
+      </c>
+      <c r="I161" t="s">
+        <v>208</v>
+      </c>
+      <c r="J161" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10">
+      <c r="A167" t="n">
+        <v>166</v>
+      </c>
+      <c r="B167" t="s">
+        <v>210</v>
+      </c>
+      <c r="C167" t="s">
+        <v>211</v>
+      </c>
+      <c r="D167" t="s">
+        <v>212</v>
+      </c>
+      <c r="E167" t="s">
+        <v>34</v>
+      </c>
+      <c r="F167" t="s">
+        <v>20</v>
+      </c>
+      <c r="G167" t="s">
+        <v>13</v>
+      </c>
+      <c r="H167" t="s">
+        <v>213</v>
+      </c>
+      <c r="I167" t="s">
+        <v>210</v>
+      </c>
+      <c r="J167" t="s">
+        <v>214</v>
       </c>
     </row>
   </sheetData>
